--- a/myCode/test_ghg_penalty/Result/output_result.xlsx
+++ b/myCode/test_ghg_penalty/Result/output_result.xlsx
@@ -7,7 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2_w90_GHG_1_8C_67_BIO_0_deviati" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_GHG_1_5C_67_BIO_0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2_GHG_1_5C_67_BIO_3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_GHG_1_5C_67_BIO_5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4_GHG_1_5C_50_BIO_0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5_GHG_1_5C_50_BIO_3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6_GHG_1_5C_50_BIO_5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_GHG_1_8C_67_BIO_0" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8_GHG_1_8C_67_BIO_3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9_GHG_1_8C_67_BIO_5" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -470,19 +478,19 @@
         <v>2011</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.129382416605949</v>
+        <v>0.8003137707710266</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.273297986400493e-06</v>
+        <v>8.227682502736769e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>14614771.97501376</v>
+        <v>1786747.87208724</v>
       </c>
       <c r="E2" t="n">
-        <v>12.47080288225776</v>
+        <v>1.374210730936272</v>
       </c>
       <c r="F2" t="n">
-        <v>-22381593038.10263</v>
+        <v>-19859850349.43435</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +498,19 @@
         <v>2012</v>
       </c>
       <c r="B3" t="n">
-        <v>2.305977836251259</v>
+        <v>0.670272171497345</v>
       </c>
       <c r="C3" t="n">
-        <v>2.439111251610322e-06</v>
+        <v>7.089696914859344e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>2432244.019794166</v>
+        <v>2432244.188934132</v>
       </c>
       <c r="E3" t="n">
-        <v>1.845311633956196</v>
+        <v>1.845311764353469</v>
       </c>
       <c r="F3" t="n">
-        <v>35261522836.90349</v>
+        <v>37038871988.1718</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +518,19 @@
         <v>2013</v>
       </c>
       <c r="B4" t="n">
-        <v>0.004865795373916626</v>
+        <v>0.6492155194282532</v>
       </c>
       <c r="C4" t="n">
-        <v>5.299704057522889e-09</v>
+        <v>7.071094976505884e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>2930344.144426942</v>
+        <v>2930344.064905167</v>
       </c>
       <c r="E4" t="n">
-        <v>2.182931770980592</v>
+        <v>2.182931711398977</v>
       </c>
       <c r="F4" t="n">
-        <v>35857699557.11971</v>
+        <v>37001836083.23022</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +538,19 @@
         <v>2014</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04844745993614197</v>
+        <v>0.00788550078868866</v>
       </c>
       <c r="C5" t="n">
-        <v>5.438435605696179e-08</v>
+        <v>8.851813555236055e-09</v>
       </c>
       <c r="D5" t="n">
-        <v>1830429.604831487</v>
+        <v>1830429.647561312</v>
       </c>
       <c r="E5" t="n">
-        <v>1.334431258023895</v>
+        <v>1.334431289743699</v>
       </c>
       <c r="F5" t="n">
-        <v>20372032862.81981</v>
+        <v>38286629623.91322</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +558,19 @@
         <v>2015</v>
       </c>
       <c r="B6" t="n">
-        <v>-1628113.468518034</v>
+        <v>-176786.9116519094</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.885387598724351</v>
+        <v>-0.2047227403312864</v>
       </c>
       <c r="D6" t="n">
-        <v>2128401.498061746</v>
+        <v>2128401.527493596</v>
       </c>
       <c r="E6" t="n">
-        <v>1.531227417113673</v>
+        <v>1.531227438460905</v>
       </c>
       <c r="F6" t="n">
-        <v>-14593830396.41296</v>
+        <v>11969998929.68649</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +578,19 @@
         <v>2016</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6231145411729813</v>
+        <v>-0.3611557334661484</v>
       </c>
       <c r="C7" t="n">
-        <v>7.451279540553194e-07</v>
+        <v>-4.318744227448116e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>1913629.864438742</v>
+        <v>1910030.15590924</v>
       </c>
       <c r="E7" t="n">
-        <v>1.355952400765193</v>
+        <v>1.353401733175323</v>
       </c>
       <c r="F7" t="n">
-        <v>-14813737706.97321</v>
+        <v>26797439886.01849</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +598,19 @@
         <v>2017</v>
       </c>
       <c r="B8" t="n">
-        <v>-1300973.758640125</v>
+        <v>-985022.8383876085</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.608204598214509</v>
+        <v>-1.217640438572026</v>
       </c>
       <c r="D8" t="n">
-        <v>1922990.217358023</v>
+        <v>1918847.084160447</v>
       </c>
       <c r="E8" t="n">
-        <v>1.344356094464935</v>
+        <v>1.341493402910676</v>
       </c>
       <c r="F8" t="n">
-        <v>13026611688.35627</v>
+        <v>25324932378.21027</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +618,19 @@
         <v>2018</v>
       </c>
       <c r="B9" t="n">
-        <v>-683001.8673897535</v>
+        <v>-1314139.220126286</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.8737737966746534</v>
+        <v>-1.681196597773811</v>
       </c>
       <c r="D9" t="n">
-        <v>1933314.383443564</v>
+        <v>1929732.616623789</v>
       </c>
       <c r="E9" t="n">
-        <v>1.333644750315493</v>
+        <v>1.331245069349025</v>
       </c>
       <c r="F9" t="n">
-        <v>-34721231018.24126</v>
+        <v>22771384127.6086</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +638,19 @@
         <v>2019</v>
       </c>
       <c r="B10" t="n">
-        <v>-1472700.654593766</v>
+        <v>-2477346.262954339</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.952206245652029</v>
+        <v>-3.283960546969563</v>
       </c>
       <c r="D10" t="n">
-        <v>2947997.420459807</v>
+        <v>2945487.101992428</v>
       </c>
       <c r="E10" t="n">
-        <v>2.006832443181757</v>
+        <v>2.005278148159983</v>
       </c>
       <c r="F10" t="n">
-        <v>9236802937.920898</v>
+        <v>43689247457.17915</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +658,19 @@
         <v>2020</v>
       </c>
       <c r="B11" t="n">
-        <v>-1524197.326662943</v>
+        <v>-2958324.005205646</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.076531379353419</v>
+        <v>-4.030352579448179</v>
       </c>
       <c r="D11" t="n">
-        <v>2155082.402319133</v>
+        <v>2156609.150396198</v>
       </c>
       <c r="E11" t="n">
-        <v>1.438197842546572</v>
+        <v>1.439349612014626</v>
       </c>
       <c r="F11" t="n">
-        <v>41344144368.35664</v>
+        <v>22198163027.95712</v>
       </c>
     </row>
     <row r="12">
@@ -670,19 +678,19 @@
         <v>2021</v>
       </c>
       <c r="B12" t="n">
-        <v>1732423.95174697</v>
+        <v>4472880.985091403</v>
       </c>
       <c r="C12" t="n">
-        <v>4.063576614392169</v>
+        <v>10.90406684279801</v>
       </c>
       <c r="D12" t="n">
-        <v>1797601.463961631</v>
+        <v>1796952.833685428</v>
       </c>
       <c r="E12" t="n">
-        <v>1.182623869963919</v>
+        <v>1.182292877841508</v>
       </c>
       <c r="F12" t="n">
-        <v>21151773744.73909</v>
+        <v>39416189623.51559</v>
       </c>
     </row>
     <row r="13">
@@ -690,19 +698,19 @@
         <v>2022</v>
       </c>
       <c r="B13" t="n">
-        <v>-21765794.61711671</v>
+        <v>-20221532.68999693</v>
       </c>
       <c r="C13" t="n">
-        <v>-39.9570257034726</v>
+        <v>-39.06015856114555</v>
       </c>
       <c r="D13" t="n">
-        <v>1832249.912240773</v>
+        <v>1832593.99707076</v>
       </c>
       <c r="E13" t="n">
-        <v>1.191329784175371</v>
+        <v>1.191653899357582</v>
       </c>
       <c r="F13" t="n">
-        <v>24398105500.71774</v>
+        <v>36106669062.45135</v>
       </c>
     </row>
     <row r="14">
@@ -710,19 +718,19 @@
         <v>2023</v>
       </c>
       <c r="B14" t="n">
-        <v>-20039399.82232702</v>
+        <v>-15985287.06935134</v>
       </c>
       <c r="C14" t="n">
-        <v>-37.91003563612497</v>
+        <v>-36.21585245180064</v>
       </c>
       <c r="D14" t="n">
-        <v>1865127.519527882</v>
+        <v>1864708.352862775</v>
       </c>
       <c r="E14" t="n">
-        <v>1.198429571992149</v>
+        <v>1.19825734795499</v>
       </c>
       <c r="F14" t="n">
-        <v>31603698724.57977</v>
+        <v>44530471674.96268</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +738,19 @@
         <v>2024</v>
       </c>
       <c r="B15" t="n">
-        <v>-19071576.30778081</v>
+        <v>-14652805.32186687</v>
       </c>
       <c r="C15" t="n">
-        <v>-36.83877226893013</v>
+        <v>-40.13629485367984</v>
       </c>
       <c r="D15" t="n">
-        <v>1900531.095600098</v>
+        <v>1898910.065788746</v>
       </c>
       <c r="E15" t="n">
-        <v>1.206716340274784</v>
+        <v>1.20578686125466</v>
       </c>
       <c r="F15" t="n">
-        <v>24063653730.46024</v>
+        <v>47491251554.09512</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +758,19 @@
         <v>2025</v>
       </c>
       <c r="B16" t="n">
-        <v>-19054246.8690455</v>
+        <v>-14797731.22971709</v>
       </c>
       <c r="C16" t="n">
-        <v>-32.62542466985451</v>
+        <v>-35.85444764667346</v>
       </c>
       <c r="D16" t="n">
-        <v>1935826.920953721</v>
+        <v>1933470.974181652</v>
       </c>
       <c r="E16" t="n">
-        <v>1.214471715335022</v>
+        <v>1.213105192298483</v>
       </c>
       <c r="F16" t="n">
-        <v>27851628904.88032</v>
+        <v>51422490438.74912</v>
       </c>
     </row>
     <row r="17">
@@ -770,19 +778,19 @@
         <v>2026</v>
       </c>
       <c r="B17" t="n">
-        <v>-16548665.52667053</v>
+        <v>-15318862.30757125</v>
       </c>
       <c r="C17" t="n">
-        <v>-28.47068487427123</v>
+        <v>-39.153360854943</v>
       </c>
       <c r="D17" t="n">
-        <v>1653040.0620552</v>
+        <v>1652036.53521657</v>
       </c>
       <c r="E17" t="n">
-        <v>1.024617209049631</v>
+        <v>1.024103153370535</v>
       </c>
       <c r="F17" t="n">
-        <v>39995286691.63053</v>
+        <v>54450769281.79631</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +798,19 @@
         <v>2027</v>
       </c>
       <c r="B18" t="n">
-        <v>-16268775.67347564</v>
+        <v>-17646567.34339728</v>
       </c>
       <c r="C18" t="n">
-        <v>-29.13348083889417</v>
+        <v>-59.03402729933507</v>
       </c>
       <c r="D18" t="n">
-        <v>1682063.159705579</v>
+        <v>1681086.891401887</v>
       </c>
       <c r="E18" t="n">
-        <v>1.032032448642288</v>
+        <v>1.031547459432574</v>
       </c>
       <c r="F18" t="n">
-        <v>31723966432.85894</v>
+        <v>59896221870.10091</v>
       </c>
     </row>
     <row r="19">
@@ -810,19 +818,19 @@
         <v>2028</v>
       </c>
       <c r="B19" t="n">
-        <v>-16397998.86885947</v>
+        <v>-16978752.41629549</v>
       </c>
       <c r="C19" t="n">
-        <v>-30.61663658565997</v>
+        <v>-82.18529609769318</v>
       </c>
       <c r="D19" t="n">
-        <v>1710600.763826609</v>
+        <v>1709686.779242307</v>
       </c>
       <c r="E19" t="n">
-        <v>1.038820772258159</v>
+        <v>1.038385465367575</v>
       </c>
       <c r="F19" t="n">
-        <v>30937067224.39902</v>
+        <v>63100166784.56393</v>
       </c>
     </row>
     <row r="20">
@@ -830,19 +838,19 @@
         <v>2029</v>
       </c>
       <c r="B20" t="n">
-        <v>-15209251.82573546</v>
+        <v>-11974538.80487393</v>
       </c>
       <c r="C20" t="n">
-        <v>-27.96026486839084</v>
+        <v>-212.2536782354703</v>
       </c>
       <c r="D20" t="n">
-        <v>1739518.640319645</v>
+        <v>1739025.851510614</v>
       </c>
       <c r="E20" t="n">
-        <v>1.04552105114641</v>
+        <v>1.045349912907346</v>
       </c>
       <c r="F20" t="n">
-        <v>42235262832.59738</v>
+        <v>56850949991.67527</v>
       </c>
     </row>
     <row r="21">
@@ -850,19 +858,19 @@
         <v>2030</v>
       </c>
       <c r="B21" t="n">
-        <v>-15270440.60067868</v>
+        <v>-13194372.4308463</v>
       </c>
       <c r="C21" t="n">
-        <v>-26.35611612086017</v>
+        <v>197.8232298688493</v>
       </c>
       <c r="D21" t="n">
-        <v>1769096.214192122</v>
+        <v>1770258.85301438</v>
       </c>
       <c r="E21" t="n">
-        <v>1.052296388931202</v>
+        <v>1.053115711603613</v>
       </c>
       <c r="F21" t="n">
-        <v>42766841032.21192</v>
+        <v>50423315558.38405</v>
       </c>
     </row>
     <row r="22">
@@ -870,19 +878,19 @@
         <v>2031</v>
       </c>
       <c r="B22" t="n">
-        <v>-15517450.97990163</v>
+        <v>-17796142.20951825</v>
       </c>
       <c r="C22" t="n">
-        <v>-27.32531550732023</v>
+        <v>279.226451017418</v>
       </c>
       <c r="D22" t="n">
-        <v>1425961.391904056</v>
+        <v>1426742.729676753</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8393598800435337</v>
+        <v>0.8399148831099222</v>
       </c>
       <c r="F22" t="n">
-        <v>43420907695.46986</v>
+        <v>63428209415.16106</v>
       </c>
     </row>
     <row r="23">
@@ -890,19 +898,19 @@
         <v>2032</v>
       </c>
       <c r="B23" t="n">
-        <v>-14519542.31159747</v>
+        <v>-19173816.83458273</v>
       </c>
       <c r="C23" t="n">
-        <v>-26.09703441888849</v>
+        <v>315.5162680169698</v>
       </c>
       <c r="D23" t="n">
-        <v>1448399.005922079</v>
+        <v>1448399.876878709</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8454707312817399</v>
+        <v>0.8455623119992142</v>
       </c>
       <c r="F23" t="n">
-        <v>31270682604.88287</v>
+        <v>73346212188.03697</v>
       </c>
     </row>
     <row r="24">
@@ -910,19 +918,19 @@
         <v>2033</v>
       </c>
       <c r="B24" t="n">
-        <v>-15013112.09405473</v>
+        <v>-19396289.15563066</v>
       </c>
       <c r="C24" t="n">
-        <v>-26.54460562719884</v>
+        <v>197.3311565037886</v>
       </c>
       <c r="D24" t="n">
-        <v>1470172.858118206</v>
+        <v>1470937.789181858</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8509858969252394</v>
+        <v>0.851519605707011</v>
       </c>
       <c r="F24" t="n">
-        <v>37113177840.80267</v>
+        <v>71449691158.66019</v>
       </c>
     </row>
     <row r="25">
@@ -930,19 +938,19 @@
         <v>2034</v>
       </c>
       <c r="B25" t="n">
-        <v>-30612245.79484462</v>
+        <v>-19469268.60408427</v>
       </c>
       <c r="C25" t="n">
-        <v>-53.25781129482269</v>
+        <v>143.3497837650003</v>
       </c>
       <c r="D25" t="n">
-        <v>1492561.643271536</v>
+        <v>1492969.460930198</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8566552693430058</v>
+        <v>0.8569763249901281</v>
       </c>
       <c r="F25" t="n">
-        <v>48795537878.144</v>
+        <v>77398698231.34073</v>
       </c>
     </row>
     <row r="26">
@@ -950,19 +958,19 @@
         <v>2035</v>
       </c>
       <c r="B26" t="n">
-        <v>-26013377.36084408</v>
+        <v>-15685120.66438499</v>
       </c>
       <c r="C26" t="n">
-        <v>-46.60339025494717</v>
+        <v>53.23109670173254</v>
       </c>
       <c r="D26" t="n">
-        <v>1515232.08199203</v>
+        <v>1515176.524027109</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8622801915700646</v>
+        <v>0.8623333627739224</v>
       </c>
       <c r="F26" t="n">
-        <v>48395394208.15814</v>
+        <v>89536462447.54025</v>
       </c>
     </row>
     <row r="27">
@@ -970,19 +978,19 @@
         <v>2036</v>
       </c>
       <c r="B27" t="n">
-        <v>-26002712.60501382</v>
+        <v>-11912294.74602818</v>
       </c>
       <c r="C27" t="n">
-        <v>-47.8614201255865</v>
+        <v>26.36672694484633</v>
       </c>
       <c r="D27" t="n">
-        <v>1310365.204823107</v>
+        <v>1310465.74148646</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7393206264755582</v>
+        <v>0.7394496659019381</v>
       </c>
       <c r="F27" t="n">
-        <v>49868392313.95186</v>
+        <v>98624031947.83969</v>
       </c>
     </row>
     <row r="28">
@@ -990,19 +998,19 @@
         <v>2037</v>
       </c>
       <c r="B28" t="n">
-        <v>-24090305.83212816</v>
+        <v>-149860.1972654313</v>
       </c>
       <c r="C28" t="n">
-        <v>-46.85238141346516</v>
+        <v>0.244174676461823</v>
       </c>
       <c r="D28" t="n">
-        <v>1331027.780926466</v>
+        <v>1330658.804078311</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7454672570536873</v>
+        <v>0.7453325409785561</v>
       </c>
       <c r="F28" t="n">
-        <v>39921197875.59688</v>
+        <v>102945296856.4564</v>
       </c>
     </row>
     <row r="29">
@@ -1010,19 +1018,19 @@
         <v>2038</v>
       </c>
       <c r="B29" t="n">
-        <v>-20895406.7907434</v>
+        <v>1461918.715035424</v>
       </c>
       <c r="C29" t="n">
-        <v>-43.07820115078639</v>
+        <v>-1.884666740833459</v>
       </c>
       <c r="D29" t="n">
-        <v>1350686.557163328</v>
+        <v>1351057.407813638</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7508799618612327</v>
+        <v>0.7511596300164258</v>
       </c>
       <c r="F29" t="n">
-        <v>51227526557.29012</v>
+        <v>112970354035.9941</v>
       </c>
     </row>
     <row r="30">
@@ -1030,19 +1038,19 @@
         <v>2039</v>
       </c>
       <c r="B30" t="n">
-        <v>-15936927.91305016</v>
+        <v>10898622.33583167</v>
       </c>
       <c r="C30" t="n">
-        <v>-36.89899473433654</v>
+        <v>-11.67797289896608</v>
       </c>
       <c r="D30" t="n">
-        <v>1371089.405708164</v>
+        <v>1371065.652612478</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7565416885111129</v>
+        <v>0.7566005175394348</v>
       </c>
       <c r="F30" t="n">
-        <v>51702791003.13712</v>
+        <v>122539094325.5016</v>
       </c>
     </row>
     <row r="31">
@@ -1050,19 +1058,19 @@
         <v>2040</v>
       </c>
       <c r="B31" t="n">
-        <v>-10693831.48747179</v>
+        <v>20682517.40113944</v>
       </c>
       <c r="C31" t="n">
-        <v>-28.21816733685099</v>
+        <v>-18.96396607174478</v>
       </c>
       <c r="D31" t="n">
-        <v>1391260.967121333</v>
+        <v>1391605.499457985</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7619078313697516</v>
+        <v>0.7621685304529822</v>
       </c>
       <c r="F31" t="n">
-        <v>54776099932.2149</v>
+        <v>132800892466.6279</v>
       </c>
     </row>
     <row r="32">
@@ -1070,19 +1078,19 @@
         <v>2041</v>
       </c>
       <c r="B32" t="n">
-        <v>-13089161.85833969</v>
+        <v>18890694.83453001</v>
       </c>
       <c r="C32" t="n">
-        <v>-46.15585385791435</v>
+        <v>-15.09598743243187</v>
       </c>
       <c r="D32" t="n">
-        <v>1120857.89564538</v>
+        <v>1120447.27043882</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6091833296286012</v>
+        <v>0.6090161284234037</v>
       </c>
       <c r="F32" t="n">
-        <v>54872925989.23807</v>
+        <v>141759092025.2283</v>
       </c>
     </row>
     <row r="33">
@@ -1090,19 +1098,19 @@
         <v>2042</v>
       </c>
       <c r="B33" t="n">
-        <v>-3451798.155227575</v>
+        <v>12396285.02544039</v>
       </c>
       <c r="C33" t="n">
-        <v>-18.34086292003585</v>
+        <v>-8.778480759361788</v>
       </c>
       <c r="D33" t="n">
-        <v>1137371.13667953</v>
+        <v>1137373.977027655</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6144153171789288</v>
+        <v>0.614474346811571</v>
       </c>
       <c r="F33" t="n">
-        <v>54713127039.51218</v>
+        <v>153578879566.558</v>
       </c>
     </row>
     <row r="34">
@@ -1110,19 +1118,19 @@
         <v>2043</v>
       </c>
       <c r="B34" t="n">
-        <v>9047323.01867895</v>
+        <v>4155053.279937953</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8411345739472</v>
+        <v>-2.641400579811286</v>
       </c>
       <c r="D34" t="n">
-        <v>1154220.476944685</v>
+        <v>1154392.691739291</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6197098486156711</v>
+        <v>0.6198599476094178</v>
       </c>
       <c r="F34" t="n">
-        <v>55472630494.40054</v>
+        <v>157000957576.737</v>
       </c>
     </row>
     <row r="35">
@@ -1130,19 +1138,19 @@
         <v>2044</v>
       </c>
       <c r="B35" t="n">
-        <v>17737414.45558751</v>
+        <v>-14347018.45182067</v>
       </c>
       <c r="C35" t="n">
-        <v>-306.4708965341003</v>
+        <v>8.274055167863672</v>
       </c>
       <c r="D35" t="n">
-        <v>1170800.775029927</v>
+        <v>1170473.845060408</v>
       </c>
       <c r="E35" t="n">
-        <v>0.624740360596959</v>
+        <v>0.6246230572030789</v>
       </c>
       <c r="F35" t="n">
-        <v>63479032003.16615</v>
+        <v>201401861697.3046</v>
       </c>
     </row>
     <row r="36">
@@ -1150,19 +1158,19 @@
         <v>2045</v>
       </c>
       <c r="B36" t="n">
-        <v>18844031.33603547</v>
+        <v>-29030816.95090267</v>
       </c>
       <c r="C36" t="n">
-        <v>-274.4349837503481</v>
+        <v>15.32210380843452</v>
       </c>
       <c r="D36" t="n">
-        <v>1187730.211794585</v>
+        <v>1186943.056354314</v>
       </c>
       <c r="E36" t="n">
-        <v>0.629839064640068</v>
+        <v>0.6294799704095453</v>
       </c>
       <c r="F36" t="n">
-        <v>65129243782.82987</v>
+        <v>234016505874.592</v>
       </c>
     </row>
     <row r="37">
@@ -1170,19 +1178,19 @@
         <v>2046</v>
       </c>
       <c r="B37" t="n">
-        <v>15911792.89804503</v>
+        <v>-45954458.2449069</v>
       </c>
       <c r="C37" t="n">
-        <v>-199.9280725697672</v>
+        <v>22.35616231851957</v>
       </c>
       <c r="D37" t="n">
-        <v>1029027.044090301</v>
+        <v>1028630.952483267</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5422652825201195</v>
+        <v>0.542108718275196</v>
       </c>
       <c r="F37" t="n">
-        <v>68343930734.50289</v>
+        <v>274250391829.8861</v>
       </c>
     </row>
     <row r="38">
@@ -1190,19 +1198,19 @@
         <v>2047</v>
       </c>
       <c r="B38" t="n">
-        <v>18691609.28293091</v>
+        <v>-54681537.85547289</v>
       </c>
       <c r="C38" t="n">
-        <v>-124.2105489714832</v>
+        <v>24.67157841076224</v>
       </c>
       <c r="D38" t="n">
-        <v>1044867.160810471</v>
+        <v>1044482.655707866</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5476428548384012</v>
+        <v>0.5474948598961187</v>
       </c>
       <c r="F38" t="n">
-        <v>72186466755.14169</v>
+        <v>314378872886.7424</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1218,19 @@
         <v>2048</v>
       </c>
       <c r="B39" t="n">
-        <v>23509052.66290424</v>
+        <v>-98852802.79977942</v>
       </c>
       <c r="C39" t="n">
-        <v>-106.1937137805783</v>
+        <v>41.58381098546496</v>
       </c>
       <c r="D39" t="n">
-        <v>1061020.759878755</v>
+        <v>1060685.369562894</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5530804828696418</v>
+        <v>0.5529605359988404</v>
       </c>
       <c r="F39" t="n">
-        <v>74694071684.2684</v>
+        <v>379790100818.9741</v>
       </c>
     </row>
     <row r="40">
@@ -1230,19 +1238,19 @@
         <v>2049</v>
       </c>
       <c r="B40" t="n">
-        <v>26235431.25827262</v>
+        <v>-148244801.6522531</v>
       </c>
       <c r="C40" t="n">
-        <v>-67.64994905245567</v>
+        <v>58.39852362463562</v>
       </c>
       <c r="D40" t="n">
-        <v>1076743.494431466</v>
+        <v>1075454.674724817</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5581890703769454</v>
+        <v>0.5575769459391714</v>
       </c>
       <c r="F40" t="n">
-        <v>87287786064.85452</v>
+        <v>449915933143.6393</v>
       </c>
     </row>
     <row r="41">
@@ -1250,19 +1258,6827 @@
         <v>2050</v>
       </c>
       <c r="B41" t="n">
-        <v>21183175.71418679</v>
+        <v>-184868627.7843808</v>
       </c>
       <c r="C41" t="n">
-        <v>-38.21940664562279</v>
+        <v>68.47446791403868</v>
       </c>
       <c r="D41" t="n">
-        <v>1093191.86365661</v>
+        <v>1092235.447751582</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5635701978252567</v>
+        <v>0.5631371314507838</v>
       </c>
       <c r="F41" t="n">
-        <v>102368639032.0126</v>
+        <v>515134055072.5384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Difference</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3446763604879379</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.543469778811238e-07</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1786747.835197479</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.374210702563883</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20065260199.50009</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.002543717622756958</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.690576716327956e-09</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2432244.191512421</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.845311766826045</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36033514432.79497</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.734173879027367</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.156345178466626e-06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2930344.131671071</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.182931761693554</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35819449263.62895</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8305780440568924</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.323595528150204e-07</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1830429.618227214</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.334431268042643</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34377554418.21063</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-128054.6202284545</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1482897829951895</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2128399.112652481</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.531225701127</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4702976000.706451</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.4396485388278961</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.257370749582592e-07</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1910251.913387954</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.353558888357212</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16299102053.26093</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-734864.7362611592</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.9084063687465974</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1920817.772235721</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.342869079831356</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-5664288832.101364</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-2396600.31376946</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.066004143263961</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1930453.396711856</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.331722186720807</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2599171316.315094</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-2179995.631452486</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.889793709224374</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2946581.169341683</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.005983233670231</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6344325000.47731</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-4384154.679832831</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5.972871494627161</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2157205.355889857</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.439709045344368</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11648106283.99701</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="n">
+        <v>974625.7502886057</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.375959557895983</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1796533.022347182</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.181980884270819</v>
+      </c>
+      <c r="F12" t="n">
+        <v>27622876887.31039</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-20216631.4399364</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-39.05069124689955</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1831056.806760043</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.19062196148396</v>
+      </c>
+      <c r="F13" t="n">
+        <v>34724423853.54797</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-17418000.93239009</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-39.46177188035714</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1864497.559735447</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.198101536030106</v>
+      </c>
+      <c r="F14" t="n">
+        <v>37310160947.68243</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-15843107.49308551</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-43.39671617639487</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1899302.789523542</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.206017602136478</v>
+      </c>
+      <c r="F15" t="n">
+        <v>37144229651.83659</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-14364487.114451</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-34.80471048035418</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1934006.117192477</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.213419438371234</v>
+      </c>
+      <c r="F16" t="n">
+        <v>34905204186.20425</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-14262153.99264655</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-36.45252830341485</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1652094.091511697</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.024117494266946</v>
+      </c>
+      <c r="F17" t="n">
+        <v>36053486966.90285</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-11947117.2300672</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-39.96734497896763</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1681498.830748707</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.031778588845011</v>
+      </c>
+      <c r="F18" t="n">
+        <v>31021672770.68108</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-11542207.40078012</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-55.86981361149209</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1710078.507650793</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.03859921958991</v>
+      </c>
+      <c r="F19" t="n">
+        <v>39164893870.31182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-11370002.08859074</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-201.5380136282229</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1739493.461843431</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.045604460489314</v>
+      </c>
+      <c r="F20" t="n">
+        <v>42877737949.7155</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-11503449.62331051</v>
+      </c>
+      <c r="C21" t="n">
+        <v>172.4712237011579</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1769298.696126968</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.052515154721677</v>
+      </c>
+      <c r="F21" t="n">
+        <v>47355029082.36647</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-11177980.61150121</v>
+      </c>
+      <c r="C22" t="n">
+        <v>175.3856436380703</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1426071.853585184</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8395015091757243</v>
+      </c>
+      <c r="F22" t="n">
+        <v>58089090576.29208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-11417279.89392736</v>
+      </c>
+      <c r="C23" t="n">
+        <v>187.8779574309802</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1448376.726656169</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8455336976396367</v>
+      </c>
+      <c r="F23" t="n">
+        <v>53848290139.78207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-11598523.47404299</v>
+      </c>
+      <c r="C24" t="n">
+        <v>117.9993777420476</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1470354.989262223</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8511672667602782</v>
+      </c>
+      <c r="F24" t="n">
+        <v>56174932370.71213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-11733891.63344318</v>
+      </c>
+      <c r="C25" t="n">
+        <v>86.39517295596639</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1493177.978427917</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8570839475428291</v>
+      </c>
+      <c r="F25" t="n">
+        <v>59858865491.97536</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-5133744.871178757</v>
+      </c>
+      <c r="C26" t="n">
+        <v>17.42255450417059</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1515494.192359149</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8625010927564072</v>
+      </c>
+      <c r="F26" t="n">
+        <v>71927164342.62871</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7684677.124684513</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-17.00929902472579</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1310524.282886982</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7394702678485372</v>
+      </c>
+      <c r="F27" t="n">
+        <v>71672979174.79918</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B28" t="n">
+        <v>12593104.76466195</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-20.51857222711979</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1329481.209049582</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.744660272529851</v>
+      </c>
+      <c r="F28" t="n">
+        <v>74674823866.03256</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B29" t="n">
+        <v>18224789.70655176</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-23.4949143651874</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1350995.999323905</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7511177201216033</v>
+      </c>
+      <c r="F29" t="n">
+        <v>90110541363.37149</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B30" t="n">
+        <v>24280905.49901873</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-26.0172109503838</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1370719.983815223</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7564022577102464</v>
+      </c>
+      <c r="F30" t="n">
+        <v>98101306471.89087</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29833905.02091745</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-27.3549467712845</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1391925.728969246</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7623378500728228</v>
+      </c>
+      <c r="F31" t="n">
+        <v>103310391807.4956</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15678196.3540826</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-12.52880622960518</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1120400.676021963</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6089849323325059</v>
+      </c>
+      <c r="F32" t="n">
+        <v>128631134355.6432</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-6537978.899219006</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.629896929130059</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1137315.51402837</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6144370299131335</v>
+      </c>
+      <c r="F33" t="n">
+        <v>156268275552.6948</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-164051.6819226742</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.104288965400713</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1153918.312112838</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6195996756522409</v>
+      </c>
+      <c r="F34" t="n">
+        <v>168296254334.4037</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-13042182.24090576</v>
+      </c>
+      <c r="C35" t="n">
+        <v>7.521544335707735</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1170783.636476934</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6247843967985535</v>
+      </c>
+      <c r="F35" t="n">
+        <v>195933572836.3034</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-15787986.4545373</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.332702720412316</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1187042.903777927</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6295279030930875</v>
+      </c>
+      <c r="F36" t="n">
+        <v>219570398713.4427</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-33002160.25100559</v>
+      </c>
+      <c r="C37" t="n">
+        <v>16.05506145891831</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1028424.532782257</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5419953507760523</v>
+      </c>
+      <c r="F37" t="n">
+        <v>253109312812.4319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-54288218.39475134</v>
+      </c>
+      <c r="C38" t="n">
+        <v>24.49411793148094</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1044417.283382326</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5474565840427363</v>
+      </c>
+      <c r="F38" t="n">
+        <v>298600324541.9012</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-59937405.19807529</v>
+      </c>
+      <c r="C39" t="n">
+        <v>25.21350592116494</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1060592.040134311</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5529080425866149</v>
+      </c>
+      <c r="F39" t="n">
+        <v>334544324276.5642</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-70213652.25109914</v>
+      </c>
+      <c r="C40" t="n">
+        <v>27.65947664982049</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1076180.102466732</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5579494667095379</v>
+      </c>
+      <c r="F40" t="n">
+        <v>372060026949.9963</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-94722208.10664791</v>
+      </c>
+      <c r="C41" t="n">
+        <v>35.08465918463182</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1092453.000084579</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5632435947062805</v>
+      </c>
+      <c r="F41" t="n">
+        <v>419172925141.916</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Difference</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3446763604879379</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.543469778811238e-07</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1786747.835197479</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.374210702563883</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20065260199.50009</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.002543717622756958</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.690576716327956e-09</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2432244.191512421</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.845311766826045</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36033514432.79497</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.734173879027367</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.156345178466626e-06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2930344.131671071</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.182931761693554</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35819449263.62895</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8305780440568924</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.323595528150204e-07</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1830429.618227214</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.334431268042643</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34377554418.21063</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-128054.6202284545</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1482897829951895</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2128399.112652481</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.531225701127</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4702976000.706451</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.4396485388278961</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.257370749582592e-07</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1910251.913387954</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.353558888357212</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16299102053.26093</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-734864.7362611592</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.9084063687465974</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1920817.772235721</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.342869079831356</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-5664288832.101364</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-2396600.31376946</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.066004143263961</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1930453.396711856</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.331722186720807</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2599171316.315094</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-2179995.631452486</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.889793709224374</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2946581.169341683</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.005983233670231</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6344325000.47731</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-4384154.679832831</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5.972871494627161</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2157205.355889857</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.439709045344368</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11648106283.99701</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="n">
+        <v>974625.7502886057</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.375959557895983</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1796533.022347182</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.181980884270819</v>
+      </c>
+      <c r="F12" t="n">
+        <v>27622876887.31039</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-20216631.4399364</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-39.05069124689955</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1831056.806760043</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.19062196148396</v>
+      </c>
+      <c r="F13" t="n">
+        <v>34724423853.54797</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-17418000.93239009</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-39.46177188035714</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1864497.559735447</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.198101536030106</v>
+      </c>
+      <c r="F14" t="n">
+        <v>37310160947.68243</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-15843107.49308551</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-43.39671617639487</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1899302.789523542</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.206017602136478</v>
+      </c>
+      <c r="F15" t="n">
+        <v>37144229651.83659</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-14364487.114451</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-34.80471048035418</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1934006.117192477</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.213419438371234</v>
+      </c>
+      <c r="F16" t="n">
+        <v>34905204186.20425</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-14262153.99264655</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-36.45252830341485</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1652094.091511697</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.024117494266946</v>
+      </c>
+      <c r="F17" t="n">
+        <v>36053486966.90285</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-11947117.2300672</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-39.96734497896763</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1681498.830748707</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.031778588845011</v>
+      </c>
+      <c r="F18" t="n">
+        <v>31021672770.68108</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-11542207.40078012</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-55.86981361149209</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1710078.507650793</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.03859921958991</v>
+      </c>
+      <c r="F19" t="n">
+        <v>39164893870.31182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-11370002.08859074</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-201.5380136282229</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1739493.461843431</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.045604460489314</v>
+      </c>
+      <c r="F20" t="n">
+        <v>42877737949.7155</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-11503449.62331051</v>
+      </c>
+      <c r="C21" t="n">
+        <v>172.4712237011579</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1769298.696126968</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.052515154721677</v>
+      </c>
+      <c r="F21" t="n">
+        <v>47355029082.36647</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-11516317.16860443</v>
+      </c>
+      <c r="C22" t="n">
+        <v>180.6942388929934</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1425475.280727744</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8391503180257871</v>
+      </c>
+      <c r="F22" t="n">
+        <v>50998549328.44455</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-11453958.07351114</v>
+      </c>
+      <c r="C23" t="n">
+        <v>188.4815181325228</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1447639.333942264</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8451061655816136</v>
+      </c>
+      <c r="F23" t="n">
+        <v>48459716829.76085</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-11435029.42234758</v>
+      </c>
+      <c r="C24" t="n">
+        <v>116.3360456457027</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1470440.568374544</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8512233805334015</v>
+      </c>
+      <c r="F24" t="n">
+        <v>47149690080.59613</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-11520603.54738427</v>
+      </c>
+      <c r="C25" t="n">
+        <v>84.82475951938856</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1492300.029455692</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8565861430280581</v>
+      </c>
+      <c r="F25" t="n">
+        <v>57106627062.64546</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-11720916.29227186</v>
+      </c>
+      <c r="C26" t="n">
+        <v>39.77764927263311</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1514980.145762146</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8622189716202417</v>
+      </c>
+      <c r="F26" t="n">
+        <v>65597079928.10388</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-11922437.6475257</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26.38917728879057</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1309864.841707498</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7391091862851079</v>
+      </c>
+      <c r="F27" t="n">
+        <v>70319882695.86963</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-11881187.55290942</v>
+      </c>
+      <c r="C28" t="n">
+        <v>19.3586100889452</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1329352.563634127</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7446019787999634</v>
+      </c>
+      <c r="F28" t="n">
+        <v>81706571227.73216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-51642235.61483873</v>
+      </c>
+      <c r="C29" t="n">
+        <v>66.575797193494</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1350068.221706837</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7506162083008152</v>
+      </c>
+      <c r="F29" t="n">
+        <v>115892729522.7218</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-49503107.92566283</v>
+      </c>
+      <c r="C30" t="n">
+        <v>53.04303011490389</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1370525.26586169</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7563129878194021</v>
+      </c>
+      <c r="F30" t="n">
+        <v>127722057727.4038</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-44510281.8034388</v>
+      </c>
+      <c r="C31" t="n">
+        <v>40.81183434264679</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1391163.395050883</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7619393219923746</v>
+      </c>
+      <c r="F31" t="n">
+        <v>135666837724.043</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-42204586.01439205</v>
+      </c>
+      <c r="C32" t="n">
+        <v>33.72665249452182</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1120142.84493348</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6088623742347805</v>
+      </c>
+      <c r="F32" t="n">
+        <v>153314718681.9142</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-43859343.03907669</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31.05917605126256</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1136793.962220669</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6141737459705008</v>
+      </c>
+      <c r="F33" t="n">
+        <v>168390031052.8445</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-58254483.39405185</v>
+      </c>
+      <c r="C34" t="n">
+        <v>37.03284069944664</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1153308.410839081</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6192924474938397</v>
+      </c>
+      <c r="F34" t="n">
+        <v>197319259781.8141</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-59530857.8726559</v>
+      </c>
+      <c r="C35" t="n">
+        <v>34.3319836022166</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1170001.326660991</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6243892532400632</v>
+      </c>
+      <c r="F35" t="n">
+        <v>214466075617.7639</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-60552544.4429993</v>
+      </c>
+      <c r="C36" t="n">
+        <v>31.95887919343007</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1186733.963227093</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6293890452561868</v>
+      </c>
+      <c r="F36" t="n">
+        <v>239749357180.8751</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-63315060.57412755</v>
+      </c>
+      <c r="C37" t="n">
+        <v>30.80183785125944</v>
+      </c>
+      <c r="D37" t="n">
+        <v>919591.919595331</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4846588176414807</v>
+      </c>
+      <c r="F37" t="n">
+        <v>260242414986.9674</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-66597523.19084647</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30.04791159510296</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-147540.505394727</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.07738423195060194</v>
+      </c>
+      <c r="F38" t="n">
+        <v>288584248792.3427</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-66855952.85324949</v>
+      </c>
+      <c r="C39" t="n">
+        <v>28.12388954042775</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1033843.468232542</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.5426654892240234</v>
+      </c>
+      <c r="F39" t="n">
+        <v>317830760465.9424</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-68670286.90856025</v>
+      </c>
+      <c r="C40" t="n">
+        <v>27.05149406686878</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-1539700.167043895</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.8125998846767226</v>
+      </c>
+      <c r="F40" t="n">
+        <v>350777748233.5094</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-72401728.66062945</v>
+      </c>
+      <c r="C41" t="n">
+        <v>26.81725885841227</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-2042384.574160278</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-1.086729895167396</v>
+      </c>
+      <c r="F41" t="n">
+        <v>381772327468.7629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Difference</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5712199360132217</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.872467080283489e-07</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1786747.885980263</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.374210741621575</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-19861493401.66322</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05514225363731384</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.832583868393587e-08</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2432244.16602844</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.845311746780717</v>
+      </c>
+      <c r="F3" t="n">
+        <v>37031728239.43922</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.22354131937027</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.867702666899453e-06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2930344.68148762</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.182932170862722</v>
+      </c>
+      <c r="F4" t="n">
+        <v>37468363112.22667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11.14970979094505</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.25160284564309e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1830429.300973982</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.334431031161779</v>
+      </c>
+      <c r="F5" t="n">
+        <v>38099778347.90469</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3784785866737366</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.382856892320331e-07</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2128401.275167882</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.531227254056226</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17670183739.13857</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-721293.5526716113</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.8625316112247311</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1909625.842592329</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.353115246335996</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21682872922.40989</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1131663.677120432</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.398911174872399</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1918984.088881582</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.341592976949832</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22003385615.32991</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-2285091.020999134</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.923348752758516</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1929763.417887747</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.331268772757547</v>
+      </c>
+      <c r="F9" t="n">
+        <v>21541878148.59276</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-4063301.960593462</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.386297236099749</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2946196.293542325</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.005764192918365</v>
+      </c>
+      <c r="F10" t="n">
+        <v>37408218722.8175</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-6453449.422348551</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-8.792033664820488</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2156972.99742946</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.439587906727147</v>
+      </c>
+      <c r="F11" t="n">
+        <v>38665012388.50052</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6173594.184783138</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15.7105300674705</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1796745.92082569</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.182150234430261</v>
+      </c>
+      <c r="F12" t="n">
+        <v>43108560735.77316</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-18232446.20003718</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-37.73154020474774</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1832358.724305302</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.191496033799738</v>
+      </c>
+      <c r="F13" t="n">
+        <v>34780487788.60696</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-18920250.4153552</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-43.96111958882306</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1864833.64405185</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.198334823073985</v>
+      </c>
+      <c r="F14" t="n">
+        <v>42917496569.42417</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-16038219.14095828</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-42.47893467995107</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1898925.794099063</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.205792869813403</v>
+      </c>
+      <c r="F15" t="n">
+        <v>52372616565.28265</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-16689131.47495832</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-43.27443350055831</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1933864.651968032</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.213348119296155</v>
+      </c>
+      <c r="F16" t="n">
+        <v>44489205070.76831</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-16708558.78682613</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-46.96990907917581</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1652049.14530915</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.024105072361234</v>
+      </c>
+      <c r="F17" t="n">
+        <v>50928510298.01444</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-16707794.20325802</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-52.34172980225317</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1680567.551323265</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.031222823676294</v>
+      </c>
+      <c r="F18" t="n">
+        <v>54451327874.48587</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-19327521.41782662</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-68.3717146691758</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1709897.262683213</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.038510639604574</v>
+      </c>
+      <c r="F19" t="n">
+        <v>58963378205.76474</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-20784188.95099245</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-84.25157261278213</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1739558.828510165</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.045666314385179</v>
+      </c>
+      <c r="F20" t="n">
+        <v>61303585808.2756</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-21405692.33394085</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-90.0299136697237</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1769429.216875464</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.052614866295353</v>
+      </c>
+      <c r="F21" t="n">
+        <v>62917577441.8075</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-18034875.60656857</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-100.701175403665</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1426132.133654922</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8395537675277353</v>
+      </c>
+      <c r="F22" t="n">
+        <v>64135081257.70026</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-12570491.54602297</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-104.3852682689744</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1447960.612622172</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8453072279947133</v>
+      </c>
+      <c r="F23" t="n">
+        <v>64112254645.54626</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-16109940.32458387</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-262.0840612049708</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1470743.562951684</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8514106867129615</v>
+      </c>
+      <c r="F24" t="n">
+        <v>62030967348.57261</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-12015224.86493514</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-4781.798410050998</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1493485.278640687</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.85727687627975</v>
+      </c>
+      <c r="F25" t="n">
+        <v>68532215830.47478</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-13715473.85969529</v>
+      </c>
+      <c r="C26" t="n">
+        <v>232.4546268938981</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1514997.508747041</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8622334039346518</v>
+      </c>
+      <c r="F26" t="n">
+        <v>80540599656.72012</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-7269891.86645193</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33.77056977164777</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1310014.966541141</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7391976917115217</v>
+      </c>
+      <c r="F27" t="n">
+        <v>87179358130.27167</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3688574.653684795</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-9.782382927215863</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1331156.404460251</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7456155262556822</v>
+      </c>
+      <c r="F28" t="n">
+        <v>91320085252.97614</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B29" t="n">
+        <v>14148046.3411435</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-26.25580647289155</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1350161.688102692</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7506638168488439</v>
+      </c>
+      <c r="F29" t="n">
+        <v>96728288566.30695</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20397431.25088776</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-29.30576987028805</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1370637.833538085</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7563703595526361</v>
+      </c>
+      <c r="F30" t="n">
+        <v>102946408660.8871</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B31" t="n">
+        <v>24051609.04612172</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-28.19735308007245</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1391242.943957746</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.761977673996008</v>
+      </c>
+      <c r="F31" t="n">
+        <v>113846985219.4194</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15060473.13433124</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-16.49983635911899</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1121253.991951346</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6094619421987171</v>
+      </c>
+      <c r="F32" t="n">
+        <v>114794916528.6371</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-11034532.43801671</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11.34590958054519</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1138143.273091763</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6148946275187911</v>
+      </c>
+      <c r="F33" t="n">
+        <v>116580873296.9221</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-32907705.39462462</v>
+      </c>
+      <c r="C34" t="n">
+        <v>31.87773575246256</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1153871.511260599</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6195822063285173</v>
+      </c>
+      <c r="F34" t="n">
+        <v>158433983226.6227</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-44192846.58302432</v>
+      </c>
+      <c r="C35" t="n">
+        <v>40.46741624363526</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1170602.076414883</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6246953401376323</v>
+      </c>
+      <c r="F35" t="n">
+        <v>175612974617.6139</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-48949772.68484297</v>
+      </c>
+      <c r="C36" t="n">
+        <v>42.521758458649</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1187665.8825683</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6298667437266749</v>
+      </c>
+      <c r="F36" t="n">
+        <v>192908167861.2334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-54916061.33203399</v>
+      </c>
+      <c r="C37" t="n">
+        <v>47.56243349012566</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1029255.96325624</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5424389817579962</v>
+      </c>
+      <c r="F37" t="n">
+        <v>210798047013.3972</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-57519829.11211976</v>
+      </c>
+      <c r="C38" t="n">
+        <v>49.69401554421654</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1045433.571500391</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5479923884446365</v>
+      </c>
+      <c r="F38" t="n">
+        <v>221943687419.9671</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-58327069.4498376</v>
+      </c>
+      <c r="C39" t="n">
+        <v>50.26722292589896</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1061423.486833274</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5533416664541599</v>
+      </c>
+      <c r="F39" t="n">
+        <v>234954554953.6388</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-58200572.12309244</v>
+      </c>
+      <c r="C40" t="n">
+        <v>50.0340194658727</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1077370.844364434</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5585645779620307</v>
+      </c>
+      <c r="F40" t="n">
+        <v>244691637210.8463</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-58595586.17632234</v>
+      </c>
+      <c r="C41" t="n">
+        <v>50.24919490294344</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1093755.42039752</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5639093886112453</v>
+      </c>
+      <c r="F41" t="n">
+        <v>255803637527.9727</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Difference</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.06333862245082855</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.511572019860071e-08</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1786747.664603963</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.37421057135822</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20069356919.71875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.579148530960083</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.125851150914574e-07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2432244.366686046</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.84531190211631</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36481532762.91542</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06555385887622833</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.139964284872597e-08</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2930344.050406843</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.182931701082067</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35849267245.13477</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.736071914434433</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.948815340567721e-06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1830429.779898137</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.334431386651002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>35118771793.09993</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-173634.9445539117</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.2010727000895818</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2128401.437038004</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.531227372414206</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3011489494.956085</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-971866.7066182643</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.162170039161251</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1911355.509623468</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.354340847173813</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10034326527.42816</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-2365867.651688218</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.924578002394925</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1919852.940651238</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.342184175246076</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3563886959.327637</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1882913.57164216</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.408837543287638</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1930366.946237594</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.33166125202072</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-7531312614.197952</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-2953284.212946564</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.914862037791496</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2947034.093344331</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.006290829323356</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3524941511.164917</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-3065520.08982946</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-4.176395299020668</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2156305.51255399</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.439103618286691</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15161547107.96643</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-2547956.253312275</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-6.484025695587261</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1797554.759043604</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.182656160284896</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14961659980.1611</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-17690630.99089151</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-36.61026870211296</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1830891.778775126</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.190509780719449</v>
+      </c>
+      <c r="F13" t="n">
+        <v>32712194559.20652</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-12509527.65619547</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-29.06583312699639</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1864337.20356369</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.197994917375918</v>
+      </c>
+      <c r="F14" t="n">
+        <v>39684284839.24408</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-11034761.04503195</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-29.22674204168365</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1898224.746572912</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.205330739485372</v>
+      </c>
+      <c r="F15" t="n">
+        <v>34056871278.57419</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-15350156.57581992</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-39.80251045179906</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1933751.389692843</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.213265510136628</v>
+      </c>
+      <c r="F16" t="n">
+        <v>36657293260.31946</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-15778186.86166108</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-44.35451386212842</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1652267.386473358</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.024231448959301</v>
+      </c>
+      <c r="F17" t="n">
+        <v>29830679795.90169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-16421982.28864851</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-51.44634589778548</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1681195.264669716</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.031597732855321</v>
+      </c>
+      <c r="F18" t="n">
+        <v>32344935138.33963</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-16072454.99690952</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-56.85681486650955</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1710472.543241352</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.038845844980914</v>
+      </c>
+      <c r="F19" t="n">
+        <v>27539884599.58664</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-16716095.57675544</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-67.76099580349359</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1739438.10480991</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.045575992558905</v>
+      </c>
+      <c r="F20" t="n">
+        <v>36279532104.87869</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-16393452.46906482</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-68.94900139242108</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1769097.315357298</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.052400492819456</v>
+      </c>
+      <c r="F21" t="n">
+        <v>32649746768.83044</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-16682565.26917619</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-93.15029213412129</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1426388.865668923</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.839693178011338</v>
+      </c>
+      <c r="F22" t="n">
+        <v>35347485070.68465</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-17150126.92832932</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-142.414526409431</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1448012.775869161</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8453247073292884</v>
+      </c>
+      <c r="F23" t="n">
+        <v>43260544742.5094</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-17098889.72523323</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-278.1727536536253</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1470560.252300441</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8512913562661434</v>
+      </c>
+      <c r="F24" t="n">
+        <v>45715017223.42766</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-15647417.43289019</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-6227.332125956216</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1492828.040332496</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8568873291109675</v>
+      </c>
+      <c r="F25" t="n">
+        <v>51215174258.72386</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-14867204.25702621</v>
+      </c>
+      <c r="C26" t="n">
+        <v>251.9745547164916</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1515127.916129053</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8622985907145799</v>
+      </c>
+      <c r="F26" t="n">
+        <v>48822982151.86661</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-9566848.206878416</v>
+      </c>
+      <c r="C27" t="n">
+        <v>44.4405392542419</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1310345.065391779</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7393757329532034</v>
+      </c>
+      <c r="F27" t="n">
+        <v>48076725714.57553</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-15164611.167312</v>
+      </c>
+      <c r="C28" t="n">
+        <v>40.21771207281542</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1330770.728886545</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7453898925017429</v>
+      </c>
+      <c r="F28" t="n">
+        <v>77743738018.71989</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-10034168.48144913</v>
+      </c>
+      <c r="C29" t="n">
+        <v>18.62131204639685</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1350788.604558289</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7510043731512623</v>
+      </c>
+      <c r="F29" t="n">
+        <v>84296355310.29424</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-16035646.12056091</v>
+      </c>
+      <c r="C30" t="n">
+        <v>23.03902629455277</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1370861.485556543</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.75648316672592</v>
+      </c>
+      <c r="F30" t="n">
+        <v>94959066614.8775</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-15789779.75369333</v>
+      </c>
+      <c r="C31" t="n">
+        <v>18.51144320189517</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1391233.529090017</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7619609749996433</v>
+      </c>
+      <c r="F31" t="n">
+        <v>109511717841.797</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-24412633.12146938</v>
+      </c>
+      <c r="C32" t="n">
+        <v>26.74580326970182</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1120350.095783085</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6089615020526105</v>
+      </c>
+      <c r="F32" t="n">
+        <v>120515480528.9501</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-34710766.96171878</v>
+      </c>
+      <c r="C33" t="n">
+        <v>35.69025018787482</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1137569.558658779</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.614578520847327</v>
+      </c>
+      <c r="F33" t="n">
+        <v>135000731093.2027</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-34708636.34194371</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33.62229983429756</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1154114.251544327</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6197082926269399</v>
+      </c>
+      <c r="F34" t="n">
+        <v>143828109338.4671</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-34737477.36690527</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31.80912895528201</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1170675.511858314</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6247294564622325</v>
+      </c>
+      <c r="F35" t="n">
+        <v>156443383776.212</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-34757155.6648187</v>
+      </c>
+      <c r="C36" t="n">
+        <v>30.19289563211229</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1187499.102516472</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.629772966393341</v>
+      </c>
+      <c r="F36" t="n">
+        <v>169427716986.7434</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-34888152.81561518</v>
+      </c>
+      <c r="C37" t="n">
+        <v>30.21639585281193</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1029442.213726461</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5425330559221412</v>
+      </c>
+      <c r="F37" t="n">
+        <v>178862744426.2335</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-35519890.25978911</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30.68726047948051</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1045383.915561557</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5479617227115943</v>
+      </c>
+      <c r="F38" t="n">
+        <v>190532783955.6095</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-72645672.26108399</v>
+      </c>
+      <c r="C39" t="n">
+        <v>62.60722914066911</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1061457.968798429</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5533551285041211</v>
+      </c>
+      <c r="F39" t="n">
+        <v>228478109198.2068</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-72688860.83444205</v>
+      </c>
+      <c r="C40" t="n">
+        <v>62.48934924987712</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1077628.196139812</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5586933699410818</v>
+      </c>
+      <c r="F40" t="n">
+        <v>240109896511.9678</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-72896837.22696924</v>
+      </c>
+      <c r="C41" t="n">
+        <v>62.51336697278899</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1093896.439113736</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5639766952950976</v>
+      </c>
+      <c r="F41" t="n">
+        <v>249908327671.8854</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Difference</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.06333862245082855</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.511572019860071e-08</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1786747.664603963</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.37421057135822</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-20069356919.71875</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.579148530960083</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.125851150914574e-07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2432244.366686046</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.84531190211631</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36481532762.91542</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06555385887622833</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.139964284872597e-08</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2930344.050406843</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.182931701082067</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35849267245.13477</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.736071914434433</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.948815340567721e-06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1830429.779898137</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.334431386651002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>35118771793.09993</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-173634.9445539117</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.2010727000895818</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2128401.437038004</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.531227372414206</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3011489494.956085</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-971866.7066182643</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.162170039161251</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1911355.509623468</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.354340847173813</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10034326527.42816</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-2365867.651688218</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.924578002394925</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1919852.940651238</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.342184175246076</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3563886959.327637</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1882913.57164216</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.408837543287638</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1930366.946237594</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.33166125202072</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-7531312614.197952</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-2953284.212946564</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.914862037791496</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2947034.093344331</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.006290829323356</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3524941511.164917</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-3065520.08982946</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-4.176395299020668</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2156305.51255399</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.439103618286691</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15161547107.96643</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-2547956.253312275</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-6.484025695587261</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1797554.759043604</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.182656160284896</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14961659980.1611</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-17690630.99089151</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-36.61026870211296</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1830891.778775126</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.190509780719449</v>
+      </c>
+      <c r="F13" t="n">
+        <v>32712194559.20652</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-12509527.65619547</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-29.06583312699639</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1864337.20356369</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.197994917375918</v>
+      </c>
+      <c r="F14" t="n">
+        <v>39684284839.24408</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-11034761.04503195</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-29.22674204168365</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1898224.746572912</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.205330739485372</v>
+      </c>
+      <c r="F15" t="n">
+        <v>34056871278.57419</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-15350156.57581992</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-39.80251045179906</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1933751.389692843</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.213265510136628</v>
+      </c>
+      <c r="F16" t="n">
+        <v>36657293260.31946</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-15778186.86166108</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-44.35451386212842</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1652267.386473358</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.024231448959301</v>
+      </c>
+      <c r="F17" t="n">
+        <v>29830679795.90169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-16421982.28864851</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-51.44634589778548</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1681195.264669716</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.031597732855321</v>
+      </c>
+      <c r="F18" t="n">
+        <v>32344935138.33963</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-16072454.99690952</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-56.85681486650955</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1710472.543241352</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.038845844980914</v>
+      </c>
+      <c r="F19" t="n">
+        <v>27539884599.58664</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-16716095.57675544</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-67.76099580349359</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1739438.10480991</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.045575992558905</v>
+      </c>
+      <c r="F20" t="n">
+        <v>36279532104.87869</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-16393452.46906482</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-68.94900139242108</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1769097.315357298</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.052400492819456</v>
+      </c>
+      <c r="F21" t="n">
+        <v>32649746768.83044</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-16434791.192159</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-91.76679821187314</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1425891.981022716</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8394006696654579</v>
+      </c>
+      <c r="F22" t="n">
+        <v>32123563612.5488</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-16561724.86526151</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-137.5284400556493</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1447521.80336228</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8450405373389825</v>
+      </c>
+      <c r="F23" t="n">
+        <v>38317544026.58043</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-16317599.22541661</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-265.4623535498875</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1469797.878119916</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8508548918311121</v>
+      </c>
+      <c r="F24" t="n">
+        <v>39151774349.0769</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-17145673.6622122</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-6823.605548697495</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1492060.958982021</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8564556266174911</v>
+      </c>
+      <c r="F25" t="n">
+        <v>36618414755.5708</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-17949635.89605734</v>
+      </c>
+      <c r="C26" t="n">
+        <v>304.2166794805897</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1514939.438817054</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8622036759038934</v>
+      </c>
+      <c r="F26" t="n">
+        <v>46592094862.14578</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-18752443.34535155</v>
+      </c>
+      <c r="C27" t="n">
+        <v>87.11005720806396</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1310282.740533233</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7393518537101208</v>
+      </c>
+      <c r="F27" t="n">
+        <v>50801695138.60327</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-30738919.33524665</v>
+      </c>
+      <c r="C28" t="n">
+        <v>81.52197201859279</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1329956.061588377</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7449451320940718</v>
+      </c>
+      <c r="F28" t="n">
+        <v>70048283854.24002</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-34478291.36555897</v>
+      </c>
+      <c r="C29" t="n">
+        <v>63.98447699294979</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1349795.297417164</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7504670682768386</v>
+      </c>
+      <c r="F29" t="n">
+        <v>89897971524.65187</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-32992280.20736469</v>
+      </c>
+      <c r="C30" t="n">
+        <v>47.401271236593</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1370443.533342391</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7562716255150616</v>
+      </c>
+      <c r="F30" t="n">
+        <v>94205866348.48479</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-32516631.93598208</v>
+      </c>
+      <c r="C31" t="n">
+        <v>38.12148076727085</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1390676.49955076</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7616767301575322</v>
+      </c>
+      <c r="F31" t="n">
+        <v>104812649076.7343</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-38536768.46427262</v>
+      </c>
+      <c r="C32" t="n">
+        <v>42.21981393269091</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1120180.389836311</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6088876308397355</v>
+      </c>
+      <c r="F32" t="n">
+        <v>118386920119.9107</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-43810707.72666928</v>
+      </c>
+      <c r="C33" t="n">
+        <v>45.04697696242611</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1136578.337792605</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6140619867605892</v>
+      </c>
+      <c r="F33" t="n">
+        <v>130249062417.237</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-40601429.90977159</v>
+      </c>
+      <c r="C34" t="n">
+        <v>39.33065640144103</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1153120.467533052</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6191969907237341</v>
+      </c>
+      <c r="F34" t="n">
+        <v>135772634702.4454</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-52319914.21756977</v>
+      </c>
+      <c r="C35" t="n">
+        <v>47.90937697339869</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1169605.554982007</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6241841429520839</v>
+      </c>
+      <c r="F35" t="n">
+        <v>155013264422.4981</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-56343532.97690645</v>
+      </c>
+      <c r="C36" t="n">
+        <v>48.94458071084761</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-284204.1916220486</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.1507305958400082</v>
+      </c>
+      <c r="F36" t="n">
+        <v>171993514788.6039</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-60215900.00220823</v>
+      </c>
+      <c r="C37" t="n">
+        <v>52.15258832177811</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-899427.9935935438</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.4777409247492673</v>
+      </c>
+      <c r="F37" t="n">
+        <v>183572635970.3506</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-67593899.75615904</v>
+      </c>
+      <c r="C38" t="n">
+        <v>58.39746670020997</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-1190331.329261631</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.6352924355938301</v>
+      </c>
+      <c r="F38" t="n">
+        <v>201275151755.5608</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-172517055.2694212</v>
+      </c>
+      <c r="C39" t="n">
+        <v>148.6780213294562</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1099232.335563242</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.5904228496543467</v>
+      </c>
+      <c r="F39" t="n">
+        <v>287138423019.1134</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-181515013.1088813</v>
+      </c>
+      <c r="C40" t="n">
+        <v>156.0452993491182</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-1479894.546784699</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.7996062952089594</v>
+      </c>
+      <c r="F40" t="n">
+        <v>307608266785.1284</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-191123072.271656</v>
+      </c>
+      <c r="C41" t="n">
+        <v>163.899384505322</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1486311.194075406</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.8095464778993448</v>
+      </c>
+      <c r="F41" t="n">
+        <v>331874329107.442</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Difference</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.731103956699371</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.891902084912614e-06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1786747.88613753</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.37421074174253</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-19927884080.44569</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1371175199747086</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.450338682816263e-07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2432244.153558254</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.845311737317548</v>
+      </c>
+      <c r="F3" t="n">
+        <v>37036019431.89316</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1751939207315445</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.908168883408986e-07</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2930343.916499525</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.182931601192404</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36842679705.96333</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.119853138923645</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.345402997465605e-07</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1830429.913645685</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.334431485377401</v>
+      </c>
+      <c r="F5" t="n">
+        <v>38120255130.2986</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2718934118747711</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-3.148579486847158e-07</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2128401.422019809</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.531227361518887</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14584348845.32234</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-17.88413727283478</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-2.13860690701687e-05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1910428.124945968</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.353683724613777</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14255878218.87103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-2901219.151650071</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-3.586355181359411</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1918081.038973093</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.340954118983654</v>
+      </c>
+      <c r="F8" t="n">
+        <v>30918323378.68156</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-3023783.83278434</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-3.868368749843692</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1929408.343291044</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.331024746028241</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20065694787.84467</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-4418146.525998384</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.856677808457309</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2946646.873868793</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.006077172879616</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30291025026.47865</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-8917104.342033058</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-12.14845785075635</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2157966.077260643</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.440250750064849</v>
+      </c>
+      <c r="F11" t="n">
+        <v>31873534037.72498</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8319762.79608316</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19.51484998886195</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1798266.44192788</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.183142956028759</v>
+      </c>
+      <c r="F12" t="n">
+        <v>33529661980.98578</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-10156488.35991471</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-18.64499199744315</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1831112.921792269</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.190666527193456</v>
+      </c>
+      <c r="F13" t="n">
+        <v>37340132099.30038</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-18147839.42414</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-34.33162896032935</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1864829.410650849</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.19832238084138</v>
+      </c>
+      <c r="F14" t="n">
+        <v>35633568797.91646</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-16929426.75263848</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-32.70098321812771</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1899546.578817844</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.206177422640612</v>
+      </c>
+      <c r="F15" t="n">
+        <v>43171653789.27637</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-12205019.78494052</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-20.89791091321195</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1932964.408564687</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.212768989126711</v>
+      </c>
+      <c r="F16" t="n">
+        <v>42197196627.65247</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-11913984.32943295</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-20.49707832293928</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1651771.804432124</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0239269358556</v>
+      </c>
+      <c r="F17" t="n">
+        <v>42497827559.13192</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-15496935.90187691</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-27.75130066456001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1681014.128969342</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.031492410796542</v>
+      </c>
+      <c r="F18" t="n">
+        <v>43319504997.43974</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-17850718.67102455</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-33.3290037835956</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1710339.830582201</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.038772191247707</v>
+      </c>
+      <c r="F19" t="n">
+        <v>43938257220.09148</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-28467956.56545099</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-52.33469831073466</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1739608.932740003</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.045686434268123</v>
+      </c>
+      <c r="F20" t="n">
+        <v>47921867208.81913</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-35016908.21440303</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-60.43766013217004</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1769213.81119445</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.052476450953183</v>
+      </c>
+      <c r="F21" t="n">
+        <v>50773379645.45261</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-33679920.77458184</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-59.30835306771708</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1425807.215479016</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8393554476494092</v>
+      </c>
+      <c r="F22" t="n">
+        <v>51526143820.92731</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-32473454.91771518</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-58.36691353631225</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1447856.91849345</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8452412623104382</v>
+      </c>
+      <c r="F23" t="n">
+        <v>50705718377.48421</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-33916918.44908638</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-59.96832759793956</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1470320.083068043</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.851160623824022</v>
+      </c>
+      <c r="F24" t="n">
+        <v>51108932817.73613</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-33907493.01668981</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-58.99073451407813</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1492720.229552001</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8568349103693397</v>
+      </c>
+      <c r="F25" t="n">
+        <v>51702045968.6786</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-32885554.50092771</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-58.9150078014837</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1515446.868667066</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8624900905431823</v>
+      </c>
+      <c r="F26" t="n">
+        <v>52650051849.62872</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-32836142.29852047</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-60.43924823250934</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1310436.035141587</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7394342120685823</v>
+      </c>
+      <c r="F27" t="n">
+        <v>53656368375.12749</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-32704401.97955414</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-63.60563149853512</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1330874.630483449</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.745454863722095</v>
+      </c>
+      <c r="F28" t="n">
+        <v>45273456327.9261</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-29662652.83781115</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-61.15285231868474</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1350941.943164885</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7510959663940285</v>
+      </c>
+      <c r="F29" t="n">
+        <v>53444576153.26327</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-24191524.51677323</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-56.01097906887289</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1371048.360857159</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7565919896446209</v>
+      </c>
+      <c r="F30" t="n">
+        <v>56837512456.79203</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-19706596.97562658</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-52.00045014264393</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1391552.470149845</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7621405730537463</v>
+      </c>
+      <c r="F31" t="n">
+        <v>55782546613.50925</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-17037690.5822813</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-60.07941265476028</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1121019.235926092</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6093280562371566</v>
+      </c>
+      <c r="F32" t="n">
+        <v>58673016365.54306</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-11629797.4378085</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-61.79403053205669</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1137340.313920259</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6144553012549775</v>
+      </c>
+      <c r="F33" t="n">
+        <v>59339773263.18884</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-2570495.97731323</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-39.44709138505453</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1154070.48540926</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6196861876330544</v>
+      </c>
+      <c r="F34" t="n">
+        <v>56310465369.52954</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4485221.376948029</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-77.49662838340913</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1171267.580775917</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6250469581377878</v>
+      </c>
+      <c r="F35" t="n">
+        <v>61548172539.02906</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1641014.754845976</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-23.89891258135557</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1187732.527495176</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6298963293007818</v>
+      </c>
+      <c r="F36" t="n">
+        <v>62925318989.34366</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-603829.3006733954</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7.586978351108041</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1029477.140248507</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5425504267235171</v>
+      </c>
+      <c r="F37" t="n">
+        <v>65417275881.7719</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3086147.995056365</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-20.5082468219176</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1045748.461061716</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5481516660616197</v>
+      </c>
+      <c r="F38" t="n">
+        <v>72169564942.33038</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-9845976.448153883</v>
+      </c>
+      <c r="C39" t="n">
+        <v>44.47566730221449</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1061357.869776666</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5533007478638641</v>
+      </c>
+      <c r="F39" t="n">
+        <v>81368950875.80487</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1374035.572075166</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-3.543049684683054</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1077724.873573035</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5587415752497557</v>
+      </c>
+      <c r="F40" t="n">
+        <v>91890965326.50363</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8353428.189014874</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-15.07153946833152</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1093506.593820095</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5637734996387195</v>
+      </c>
+      <c r="F41" t="n">
+        <v>102443384210.8965</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Difference</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04641987383365631</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.772228064406176e-08</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1786747.877526492</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.37421073511967</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-19220025313.81354</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2294319570064545</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.426779906623716e-07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2432244.143436119</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.845311729758573</v>
+      </c>
+      <c r="F3" t="n">
+        <v>35763430224.00821</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.207443594932556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.315117720238874e-06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2930344.189905584</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.182931805168256</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35611750923.80244</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.84369121491909</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.192165610995076e-06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1830429.81064862</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.334431407812288</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34619243329.81674</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2309532016515732</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.674483754967705e-07</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2128401.288961351</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.531227264122302</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3607174311.686035</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-780072.5058938116</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.9328201990556685</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1911976.636832058</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.354780962959867</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-101513061.5085602</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1834482.309896082</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.267703607797474</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1920731.925086081</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.342792849138834</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-2121175982.794037</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1926537.189858109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.464645845333587</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1929155.062144786</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.330811463263783</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10509431838.34328</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1501636.178218335</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.990563062948805</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2947005.725380599</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.006267580026146</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-6941139824.471466</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-3406989.24699606</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-4.641603784987795</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2155860.8489694</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.43880435742691</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16610899083.99654</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2962312.255712256</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.948404745097747</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1797073.919237405</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.182341241253045</v>
+      </c>
+      <c r="F12" t="n">
+        <v>25338139761.56606</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-5524634.922958121</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-10.14196740813418</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1831132.084417433</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.190671189270127</v>
+      </c>
+      <c r="F13" t="n">
+        <v>22343334445.05029</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-6926803.83876314</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-13.10395434494928</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1864400.985802412</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.19803917721887</v>
+      </c>
+      <c r="F14" t="n">
+        <v>23344668225.08562</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-8766072.331369542</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-16.93259839127941</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1898685.700727224</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.20562620296664</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24406989560.69559</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-10736036.49785933</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-18.38266043370857</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1933632.799366176</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.213190348048704</v>
+      </c>
+      <c r="F16" t="n">
+        <v>28447711212.22881</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-14294217.12154</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-24.59208269910911</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1652775.727637708</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.024546688661994</v>
+      </c>
+      <c r="F17" t="n">
+        <v>21488170989.16034</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-14915778.12045468</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-26.7105862660547</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1681329.554026455</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.031677037489381</v>
+      </c>
+      <c r="F18" t="n">
+        <v>21092466794.04267</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-15114311.92650053</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-28.21986994856761</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1709955.491340697</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.038527884051886</v>
+      </c>
+      <c r="F19" t="n">
+        <v>25367118608.71959</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-15094974.77730395</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-27.75018112599949</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1739359.270311087</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.045527936474777</v>
+      </c>
+      <c r="F20" t="n">
+        <v>21292732196.30844</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-14767789.5615299</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-25.48856229562952</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1769086.570651829</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.052393928446709</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12118765927.7207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-15113982.25275039</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-26.61483088706759</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1426311.276264578</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8396474191877955</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21253698075.17717</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-27646820.99927971</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-49.69165168620736</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1448433.239266276</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8455704665370283</v>
+      </c>
+      <c r="F23" t="n">
+        <v>27697950646.00719</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-24821286.6758215</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-43.88638823460484</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1470807.766652733</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.851432866761607</v>
+      </c>
+      <c r="F24" t="n">
+        <v>27779860046.12509</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-24854875.44248354</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-43.24139675812471</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1493333.34490478</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8571743877159911</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23801847261.84778</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-24773555.90788974</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-44.38222987976811</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1516006.945084393</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8627934060317527</v>
+      </c>
+      <c r="F26" t="n">
+        <v>19848542474.33054</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-24910111.46542845</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-45.85034370576303</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1310765.812199384</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7396048323922505</v>
+      </c>
+      <c r="F27" t="n">
+        <v>22102518186.66455</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-29411201.0354587</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-57.20080178075846</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1330425.913199425</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7451866859790367</v>
+      </c>
+      <c r="F28" t="n">
+        <v>24545616003.98337</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-29378652.82489015</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-60.56735475905567</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1350911.126422942</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7510638590195983</v>
+      </c>
+      <c r="F29" t="n">
+        <v>19237232553.87204</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-27100814.99298125</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-62.74690048032323</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1370760.115713507</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.756418086401653</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12662706731.03876</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-53276577.70195718</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-140.5826701580085</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1391868.014880061</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.7622997547810451</v>
+      </c>
+      <c r="F31" t="n">
+        <v>33706564686.9124</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-50387346.66224277</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-177.6791389701363</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1120492.066019237</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6090296549074475</v>
+      </c>
+      <c r="F32" t="n">
+        <v>28692085266.67828</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-36071847.6927413</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-191.6649769347135</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1137349.944096327</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6144503618817794</v>
+      </c>
+      <c r="F33" t="n">
+        <v>36411640229.89581</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-31138253.9772265</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-477.8507965200423</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1154167.600321978</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6197281353344454</v>
+      </c>
+      <c r="F34" t="n">
+        <v>32571370697.8855</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-41087911.68601456</v>
+      </c>
+      <c r="C35" t="n">
+        <v>709.9258554653721</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1171101.268224001</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6249476601765651</v>
+      </c>
+      <c r="F35" t="n">
+        <v>49909069873.4883</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-46626870.45010274</v>
+      </c>
+      <c r="C36" t="n">
+        <v>679.0502629781577</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1187745.508746177</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6298932065948013</v>
+      </c>
+      <c r="F36" t="n">
+        <v>59598110173.01706</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-46638466.43138696</v>
+      </c>
+      <c r="C37" t="n">
+        <v>586.0017636593672</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1029428.376137793</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.542516125156623</v>
+      </c>
+      <c r="F37" t="n">
+        <v>61338223243.54524</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-46628278.52555664</v>
+      </c>
+      <c r="C38" t="n">
+        <v>309.8568981186435</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1045401.167937219</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5479611233498362</v>
+      </c>
+      <c r="F38" t="n">
+        <v>69129776556.83009</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-43839328.77771197</v>
+      </c>
+      <c r="C39" t="n">
+        <v>198.0284445871794</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1061444.428656012</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.553338335898127</v>
+      </c>
+      <c r="F39" t="n">
+        <v>69743262970.52812</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-44942142.11742581</v>
+      </c>
+      <c r="C40" t="n">
+        <v>115.8865503151732</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1077136.941311061</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5584289500266371</v>
+      </c>
+      <c r="F40" t="n">
+        <v>86782608068.43228</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-41295070.67494724</v>
+      </c>
+      <c r="C41" t="n">
+        <v>74.50597209220811</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1092963.463645279</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5634873474910239</v>
+      </c>
+      <c r="F41" t="n">
+        <v>101655739277.1689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Difference</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>GHG Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Difference</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Demand Deviation Ratio (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Profit</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04641987383365631</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.772228064406176e-08</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1786747.877526492</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.37421073511967</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-19220025313.81354</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2294319570064545</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.426779906623716e-07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2432244.143436119</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.845311729758573</v>
+      </c>
+      <c r="F3" t="n">
+        <v>35763430224.00821</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.207443594932556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.315117720238874e-06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2930344.189905584</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.182931805168256</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35611750923.80244</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.84369121491909</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.192165610995076e-06</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1830429.81064862</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.334431407812288</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34619243329.81674</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2309532016515732</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.674483754967705e-07</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2128401.288961351</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.531227264122302</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3607174311.686035</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-780072.5058938116</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.9328201990556685</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1911976.636832058</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.354780962959867</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-101513061.5085602</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1834482.309896082</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.267703607797474</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1920731.925086081</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.342792849138834</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-2121175982.794037</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1926537.189858109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-2.464645845333587</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1929155.062144786</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.330811463263783</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10509431838.34328</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1501636.178218335</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1.990563062948805</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2947005.725380599</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.006267580026146</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-6941139824.471466</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-3406989.24699606</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-4.641603784987795</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2155860.8489694</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.43880435742691</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16610899083.99654</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2962312.255712256</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.948404745097747</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1797073.919237405</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.182341241253045</v>
+      </c>
+      <c r="F12" t="n">
+        <v>25338139761.56606</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-5524634.922958121</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-10.14196740813418</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1831132.084417433</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.190671189270127</v>
+      </c>
+      <c r="F13" t="n">
+        <v>22343334445.05029</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-6926803.83876314</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-13.10395434494928</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1864400.985802412</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.19803917721887</v>
+      </c>
+      <c r="F14" t="n">
+        <v>23344668225.08562</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-8766072.331369542</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-16.93259839127941</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1898685.700727224</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.20562620296664</v>
+      </c>
+      <c r="F15" t="n">
+        <v>24406989560.69559</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-10736036.49785933</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-18.38266043370857</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1933632.799366176</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.213190348048704</v>
+      </c>
+      <c r="F16" t="n">
+        <v>28447711212.22881</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-14294217.12154</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-24.59208269910911</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1652775.727637708</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.024546688661994</v>
+      </c>
+      <c r="F17" t="n">
+        <v>21488170989.16034</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-14915778.12045468</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-26.7105862660547</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1681329.554026455</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.031677037489381</v>
+      </c>
+      <c r="F18" t="n">
+        <v>21092466794.04267</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-15114311.92650053</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-28.21986994856761</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1709955.491340697</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.038527884051886</v>
+      </c>
+      <c r="F19" t="n">
+        <v>25367118608.71959</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-15094974.77730395</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-27.75018112599949</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1739359.270311087</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.045527936474777</v>
+      </c>
+      <c r="F20" t="n">
+        <v>21292732196.30844</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-14767789.5615299</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-25.48856229562952</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1769086.570651829</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.052393928446709</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12118765927.7207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-15115972.51768238</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-26.6183356261694</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1425764.525020778</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8393255551750559</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17480680707.31332</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-27165828.83064651</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-48.82712931279824</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1447637.14407891</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8451084172803118</v>
+      </c>
+      <c r="F23" t="n">
+        <v>22781505806.0611</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-29701196.407704</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-52.51453132163656</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1469770.826238394</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8508392085324921</v>
+      </c>
+      <c r="F24" t="n">
+        <v>22240042492.81415</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-27109804.64208266</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-47.16442137383781</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1492191.151807189</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8565304682769609</v>
+      </c>
+      <c r="F25" t="n">
+        <v>15720069340.89482</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-27345213.47425784</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-48.98939639663639</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1515059.013752788</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8622712008296443</v>
+      </c>
+      <c r="F26" t="n">
+        <v>13013514169.56885</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-32412994.70496313</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-59.66038930890327</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1310476.340845764</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7394601474344045</v>
+      </c>
+      <c r="F27" t="n">
+        <v>19875568712.76614</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-32733637.66710571</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-63.66249095036592</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1330152.887860715</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7450536229043122</v>
+      </c>
+      <c r="F28" t="n">
+        <v>18917432898.98271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-32501753.1492173</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-67.00597284066444</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1350119.464338213</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.7506447219254425</v>
+      </c>
+      <c r="F29" t="n">
+        <v>18759767889.64798</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-36250313.69776066</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-83.93086431396901</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1370322.640799254</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7562009805676914</v>
+      </c>
+      <c r="F30" t="n">
+        <v>16932212529.17885</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-42069670.78807592</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-111.0106336998973</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1390574.646059811</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.761617519545031</v>
+      </c>
+      <c r="F31" t="n">
+        <v>21075824636.25536</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-37114235.22855945</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-130.8746301556499</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1119050.245936245</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6082709492869461</v>
+      </c>
+      <c r="F32" t="n">
+        <v>20421924139.93199</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-37145100.19646391</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-197.3676212273847</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1136304.68530637</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.6139155026582176</v>
+      </c>
+      <c r="F33" t="n">
+        <v>18648890296.97389</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-32082830.35247976</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-492.3463611595657</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1152242.254585505</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.618727686518018</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9803231056.777313</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-40613377.02417264</v>
+      </c>
+      <c r="C35" t="n">
+        <v>701.7267425892908</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-34506.79667019844</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.01841541778337271</v>
+      </c>
+      <c r="F35" t="n">
+        <v>24241622767.48853</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-53424496.7355902</v>
+      </c>
+      <c r="C36" t="n">
+        <v>778.0474693578393</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-1188575.627078205</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.6344300364818302</v>
+      </c>
+      <c r="F36" t="n">
+        <v>36308325919.19746</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-55922340.13746542</v>
+      </c>
+      <c r="C37" t="n">
+        <v>702.6515332944064</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-1903091.818034291</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-1.022305576420681</v>
+      </c>
+      <c r="F37" t="n">
+        <v>36946224417.72723</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-57372268.79017594</v>
+      </c>
+      <c r="C38" t="n">
+        <v>381.253475519355</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-1382705.956260175</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.7504357032187431</v>
+      </c>
+      <c r="F38" t="n">
+        <v>37643821110.82526</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-65208479.61145532</v>
+      </c>
+      <c r="C39" t="n">
+        <v>294.5559193396312</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-871205.720808804</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.4764044002779404</v>
+      </c>
+      <c r="F39" t="n">
+        <v>44771245007.30058</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-89721150.54522282</v>
+      </c>
+      <c r="C40" t="n">
+        <v>231.3524486622699</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-238807.837000668</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.1312132107651031</v>
+      </c>
+      <c r="F40" t="n">
+        <v>83700129056.11307</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2050</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-90923632.41217157</v>
+      </c>
+      <c r="C41" t="n">
+        <v>164.0475124100777</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1556352.054118127</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.8562627609121751</v>
+      </c>
+      <c r="F41" t="n">
+        <v>103378930706.1733</v>
       </c>
     </row>
   </sheetData>
